--- a/PythonLand/Output.xlsx
+++ b/PythonLand/Output.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Regression-Test-Case-Prioritisation\PythonLand\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4F0924F8-E53F-4024-A274-69DF3CE48D90}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BD302505-AB7D-43F9-8336-67DD316A58F6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
+  <oleSize ref="A1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -84,6 +87,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Big</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -122,6 +150,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Genetic Algorithm</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -757,7 +788,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>HC</c:v>
+            <c:v>Hill Climber</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1112,7 +1143,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>R</c:v>
+            <c:v>Random</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -7161,6 +7192,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7178,6 +7210,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time /</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7240,6 +7332,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Fitness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7289,6 +7436,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -8217,8 +8395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
